--- a/htail/po_P2012_prima_iteranzione.xlsx
+++ b/htail/po_P2012_prima_iteranzione.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIRCRAFT DESIGN\From github\Aircraft-Design\htail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B92C307-44C4-41F1-BF33-871A313C9129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DD93A3-3710-4477-8AE1-079176E03F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Velivolo" sheetId="1" r:id="rId1"/>
@@ -1048,34 +1048,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.4005960798830031E-2</c:v>
+                  <c:v>-2.6814588075260049E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.34781192159766006</c:v>
+                  <c:v>-0.27342917615052009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.63161788239648986</c:v>
+                  <c:v>-0.52004376422578003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.91542384319532011</c:v>
+                  <c:v>-0.76665835230104018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.19922980399415</c:v>
+                  <c:v>-1.0132729403763003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4830357647929797</c:v>
+                  <c:v>-1.25988752845156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7668417255918099</c:v>
+                  <c:v>-1.5065021165268202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.05064768639064</c:v>
+                  <c:v>-1.7531167046020804</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.3344536471894699</c:v>
+                  <c:v>-1.9997312926773405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.6182596079882998</c:v>
+                  <c:v>-2.2463458807526004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1148,34 +1148,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.0320003885648168E-2</c:v>
+                  <c:v>-1.7690616799805436E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.32044000777129633</c:v>
+                  <c:v>-0.25518123359961087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.59056001165694438</c:v>
+                  <c:v>-0.49267185039941619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.86068001554259266</c:v>
+                  <c:v>-0.73016246719922173</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1308000194282406</c:v>
+                  <c:v>-0.96765308399902716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4009200233138888</c:v>
+                  <c:v>-1.2051437007988324</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.6710400271995369</c:v>
+                  <c:v>-1.4426343175986378</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.9411600310851853</c:v>
+                  <c:v>-1.6801249343984435</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.2112800349708337</c:v>
+                  <c:v>-1.9176155511982491</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.4814000388564814</c:v>
+                  <c:v>-2.1551061679980545</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,34 +1248,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.1377874625193756E-2</c:v>
+                  <c:v>-4.5062530626169162E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.40255574925038751</c:v>
+                  <c:v>-0.30992506125233832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.71373362387558104</c:v>
+                  <c:v>-0.57478759187850736</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.024911498500775</c:v>
+                  <c:v>-0.83965012250467663</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.3360893731259686</c:v>
+                  <c:v>-1.1045126531308456</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6472672477511621</c:v>
+                  <c:v>-1.3693751837570147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.9584451223763562</c:v>
+                  <c:v>-1.6342377143831839</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.2696229970015498</c:v>
+                  <c:v>-1.8991002450093533</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.5808008716267441</c:v>
+                  <c:v>-2.1639627756355226</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.8919787462519375</c:v>
+                  <c:v>-2.4288253062616914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,34 +1569,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.4005960798830031E-2</c:v>
+                  <c:v>-2.6814588075260049E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.34781192159766006</c:v>
+                  <c:v>-0.27342917615052009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.63161788239648986</c:v>
+                  <c:v>-0.52004376422578003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.91542384319532011</c:v>
+                  <c:v>-0.76665835230104018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.19922980399415</c:v>
+                  <c:v>-1.0132729403763003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4830357647929797</c:v>
+                  <c:v>-1.25988752845156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7668417255918099</c:v>
+                  <c:v>-1.5065021165268202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.05064768639064</c:v>
+                  <c:v>-1.7531167046020804</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.3344536471894699</c:v>
+                  <c:v>-1.9997312926773405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.6182596079882998</c:v>
+                  <c:v>-2.2463458807526004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,34 +2003,34 @@
                   <c:v>0.2198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.4005960798830031E-2</c:v>
+                  <c:v>-2.6814588075260049E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.34781192159766006</c:v>
+                  <c:v>-0.27342917615052009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.63161788239648986</c:v>
+                  <c:v>-0.52004376422578003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.91542384319532011</c:v>
+                  <c:v>-0.76665835230104018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.19922980399415</c:v>
+                  <c:v>-1.0132729403763003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.4830357647929797</c:v>
+                  <c:v>-1.25988752845156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.7668417255918099</c:v>
+                  <c:v>-1.5065021165268202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.05064768639064</c:v>
+                  <c:v>-1.7531167046020804</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.3344536471894699</c:v>
+                  <c:v>-1.9997312926773405</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.6182596079882998</c:v>
+                  <c:v>-2.2463458807526004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,8 +2712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2929,7 +2929,7 @@
         <v>127</v>
       </c>
       <c r="B16" s="8">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="C16" t="s">
         <v>99</v>
@@ -3066,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="K19" s="2">
         <f>I31</f>
-        <v>-4.5437985154966309</v>
+        <v>-3.013683494815572</v>
       </c>
       <c r="L19" t="s">
         <v>165</v>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="K24" s="5">
         <f>J31</f>
-        <v>-13.126877481679264</v>
+        <v>-12.38416996602284</v>
       </c>
       <c r="L24" s="8" t="s">
         <v>149</v>
@@ -3659,11 +3659,11 @@
       </c>
       <c r="I31" s="11">
         <f>Velivolo!$B$22-(Velivolo!$B$24/$K$18+H31/$K$18*Velivolo!$B$16)*$K$8</f>
-        <v>-4.5437985154966309</v>
+        <v>-3.013683494815572</v>
       </c>
       <c r="J31" s="14">
         <f>0.9/$K$21*(I31+$K$20*$B$12-Velivolo!$B$23)</f>
-        <v>-13.126877481679264</v>
+        <v>-12.38416996602284</v>
       </c>
       <c r="K31" s="11" t="s">
         <v>92</v>
@@ -3710,11 +3710,11 @@
       </c>
       <c r="I32" s="11">
         <f>Velivolo!$B$22-(Velivolo!$B$24/$K$18+H32/$K$18*Velivolo!$B$16)*$K$8</f>
-        <v>-3.980735452433569</v>
+        <v>-2.6383081194401967</v>
       </c>
       <c r="J32" s="14">
         <f>0.9/$K$21*(I32+$K$20*$B$12-Velivolo!$B$23)</f>
-        <v>-12.853570466799216</v>
+        <v>-12.20196528943614</v>
       </c>
       <c r="K32" s="2">
         <f>$K$17-$K$16/$K$21+$K$23*L32*($K$24+$K$25)</f>
@@ -3765,15 +3765,15 @@
       </c>
       <c r="I33" s="11">
         <f>Velivolo!$B$22-(Velivolo!$B$24/$K$18+H33/$K$18*Velivolo!$B$16)*$K$8</f>
-        <v>-5.6699246416227567</v>
+        <v>-3.7644342455663216</v>
       </c>
       <c r="J33" s="14">
         <f>0.9/$K$21*(I33+$K$20*$B$12-Velivolo!$B$23)</f>
-        <v>-13.67349151143936</v>
+        <v>-12.748579319196237</v>
       </c>
       <c r="K33" s="2">
         <f t="shared" ref="K33:K42" si="2">$K$17-$K$16/$K$21+$K$23*L33*($K$24+$K$25)</f>
-        <v>-6.4005960798830031E-2</v>
+        <v>-2.6814588075260049E-2</v>
       </c>
       <c r="L33" s="8">
         <v>0.1</v>
@@ -3784,11 +3784,11 @@
       </c>
       <c r="N33" s="2">
         <f t="shared" ref="N33:N42" si="3">$K$17-$K$16/$K$21+$K$23*L33*($J$32+$K$25)</f>
-        <v>-5.0320003885648168E-2</v>
+        <v>-1.7690616799805436E-2</v>
       </c>
       <c r="O33" s="2">
         <f t="shared" ref="O33:O42" si="4">$K$17-$K$16/$K$21+$K$23*L33*($J$33+$K$25)</f>
-        <v>-9.1377874625193756E-2</v>
+        <v>-4.5062530626169162E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="2"/>
-        <v>-0.34781192159766006</v>
+        <v>-0.27342917615052009</v>
       </c>
       <c r="L34" s="8">
         <v>0.2</v>
@@ -3816,11 +3816,11 @@
       </c>
       <c r="N34" s="2">
         <f t="shared" si="3"/>
-        <v>-0.32044000777129633</v>
+        <v>-0.25518123359961087</v>
       </c>
       <c r="O34" s="2">
         <f t="shared" si="4"/>
-        <v>-0.40255574925038751</v>
+        <v>-0.30992506125233832</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="K35" s="2">
         <f t="shared" si="2"/>
-        <v>-0.63161788239648986</v>
+        <v>-0.52004376422578003</v>
       </c>
       <c r="L35" s="8">
         <v>0.3</v>
@@ -3851,11 +3851,11 @@
       </c>
       <c r="N35" s="2">
         <f t="shared" si="3"/>
-        <v>-0.59056001165694438</v>
+        <v>-0.49267185039941619</v>
       </c>
       <c r="O35" s="2">
         <f t="shared" si="4"/>
-        <v>-0.71373362387558104</v>
+        <v>-0.57478759187850736</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -3875,11 +3875,11 @@
       </c>
       <c r="I36" s="5">
         <f>$K$23*(J31+$K$25)</f>
-        <v>-2.8380596079883</v>
+        <v>-2.4661458807526007</v>
       </c>
       <c r="K36" s="2">
         <f t="shared" si="2"/>
-        <v>-0.91542384319532011</v>
+        <v>-0.76665835230104018</v>
       </c>
       <c r="L36" s="8">
         <v>0.4</v>
@@ -3890,11 +3890,11 @@
       </c>
       <c r="N36" s="2">
         <f t="shared" si="3"/>
-        <v>-0.86068001554259266</v>
+        <v>-0.73016246719922173</v>
       </c>
       <c r="O36" s="2">
         <f t="shared" si="4"/>
-        <v>-1.024911498500775</v>
+        <v>-0.83965012250467663</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -3914,11 +3914,11 @@
       </c>
       <c r="I37" s="5">
         <f t="shared" ref="I37:I38" si="5">$K$23*(J32+$K$25)</f>
-        <v>-2.7012000388564812</v>
+        <v>-2.3749061679980543</v>
       </c>
       <c r="K37" s="2">
         <f t="shared" si="2"/>
-        <v>-1.19922980399415</v>
+        <v>-1.0132729403763003</v>
       </c>
       <c r="L37" s="8">
         <v>0.5</v>
@@ -3929,11 +3929,11 @@
       </c>
       <c r="N37" s="2">
         <f t="shared" si="3"/>
-        <v>-1.1308000194282406</v>
+        <v>-0.96765308399902716</v>
       </c>
       <c r="O37" s="2">
         <f t="shared" si="4"/>
-        <v>-1.3360893731259686</v>
+        <v>-1.1045126531308456</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -3953,11 +3953,11 @@
       </c>
       <c r="I38" s="5">
         <f t="shared" si="5"/>
-        <v>-3.1117787462519373</v>
+        <v>-2.6486253062616911</v>
       </c>
       <c r="K38" s="2">
         <f t="shared" si="2"/>
-        <v>-1.4830357647929797</v>
+        <v>-1.25988752845156</v>
       </c>
       <c r="L38" s="8">
         <v>0.6</v>
@@ -3968,11 +3968,11 @@
       </c>
       <c r="N38" s="2">
         <f t="shared" si="3"/>
-        <v>-1.4009200233138888</v>
+        <v>-1.2051437007988324</v>
       </c>
       <c r="O38" s="2">
         <f>$K$17-$K$16/$K$21+$K$23*L38*($J$33+$K$25)</f>
-        <v>-1.6472672477511621</v>
+        <v>-1.3693751837570147</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3989,7 +3989,7 @@
       </c>
       <c r="K39" s="2">
         <f t="shared" si="2"/>
-        <v>-1.7668417255918099</v>
+        <v>-1.5065021165268202</v>
       </c>
       <c r="L39" s="8">
         <v>0.7</v>
@@ -4000,11 +4000,11 @@
       </c>
       <c r="N39" s="2">
         <f t="shared" si="3"/>
-        <v>-1.6710400271995369</v>
+        <v>-1.4426343175986378</v>
       </c>
       <c r="O39" s="2">
         <f t="shared" si="4"/>
-        <v>-1.9584451223763562</v>
+        <v>-1.6342377143831839</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="K40" s="2">
         <f t="shared" si="2"/>
-        <v>-2.05064768639064</v>
+        <v>-1.7531167046020804</v>
       </c>
       <c r="L40" s="8">
         <v>0.8</v>
@@ -4032,11 +4032,11 @@
       </c>
       <c r="N40" s="2">
         <f t="shared" si="3"/>
-        <v>-1.9411600310851853</v>
+        <v>-1.6801249343984435</v>
       </c>
       <c r="O40" s="2">
         <f t="shared" si="4"/>
-        <v>-2.2696229970015498</v>
+        <v>-1.8991002450093533</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
       </c>
       <c r="K41" s="2">
         <f t="shared" si="2"/>
-        <v>-2.3344536471894699</v>
+        <v>-1.9997312926773405</v>
       </c>
       <c r="L41" s="8">
         <v>0.9</v>
@@ -4067,11 +4067,11 @@
       </c>
       <c r="N41" s="2">
         <f t="shared" si="3"/>
-        <v>-2.2112800349708337</v>
+        <v>-1.9176155511982491</v>
       </c>
       <c r="O41" s="2">
         <f t="shared" si="4"/>
-        <v>-2.5808008716267441</v>
+        <v>-2.1639627756355226</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="K42" s="2">
         <f t="shared" si="2"/>
-        <v>-2.6182596079882998</v>
+        <v>-2.2463458807526004</v>
       </c>
       <c r="L42" s="8">
         <v>1</v>
@@ -4103,11 +4103,11 @@
       </c>
       <c r="N42" s="2">
         <f t="shared" si="3"/>
-        <v>-2.4814000388564814</v>
+        <v>-2.1551061679980545</v>
       </c>
       <c r="O42" s="2">
         <f t="shared" si="4"/>
-        <v>-2.8919787462519375</v>
+        <v>-2.4288253062616914</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
